--- a/biology/Zoologie/Christine_Charpentier/Christine_Charpentier.xlsx
+++ b/biology/Zoologie/Christine_Charpentier/Christine_Charpentier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,16 +490,18 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Charpentier est multiple championne du monde[1] d'agility, avec son chien Loch Macleod (un border).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Charpentier est multiple championne du monde d'agility, avec son chien Loch Macleod (un border).
 Elle a participé à 5 championnats du monde:
 Maribor (1998)
 Dortmund (1999)
 Helsinki (2000)
 Porto (2001)
 Dortmund (2002)
-Elle a remporté le titre en individuel en 1999[2] et 2000[3], ainsi que par équipes en 2000[1],[4].
+Elle a remporté le titre en individuel en 1999 et 2000, ainsi que par équipes en 2000,.
 Christine Charpentier a également été capitaine et sélectionneur de l'équipe de France d'agility en 2004 et 2005.
 </t>
         </is>
